--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H2">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J2">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N2">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O2">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P2">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q2">
-        <v>1570.496659125249</v>
+        <v>4286.292974859845</v>
       </c>
       <c r="R2">
-        <v>1570.496659125249</v>
+        <v>38576.63677373861</v>
       </c>
       <c r="S2">
-        <v>0.05837867293947856</v>
+        <v>0.1115125350497709</v>
       </c>
       <c r="T2">
-        <v>0.05837867293947856</v>
+        <v>0.1115125350497709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H3">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J3">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N3">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O3">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P3">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q3">
-        <v>2019.049476328961</v>
+        <v>2714.832397139164</v>
       </c>
       <c r="R3">
-        <v>2019.049476328961</v>
+        <v>24433.49157425248</v>
       </c>
       <c r="S3">
-        <v>0.0750523271363633</v>
+        <v>0.07062929310149027</v>
       </c>
       <c r="T3">
-        <v>0.0750523271363633</v>
+        <v>0.07062929310149026</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H4">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J4">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N4">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O4">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P4">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q4">
-        <v>4170.342744615172</v>
+        <v>6002.478138319499</v>
       </c>
       <c r="R4">
-        <v>4170.342744615172</v>
+        <v>54022.3032448755</v>
       </c>
       <c r="S4">
-        <v>0.1550204349170795</v>
+        <v>0.1561609431998109</v>
       </c>
       <c r="T4">
-        <v>0.1550204349170795</v>
+        <v>0.1561609431998109</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>72.47636390323299</v>
+        <v>96.320746</v>
       </c>
       <c r="H5">
-        <v>72.47636390323299</v>
+        <v>288.962238</v>
       </c>
       <c r="I5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="J5">
-        <v>0.3310533492327125</v>
+        <v>0.3809824610908788</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N5">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O5">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P5">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q5">
-        <v>1146.07202625682</v>
+        <v>1640.512021534452</v>
       </c>
       <c r="R5">
-        <v>1146.07202625682</v>
+        <v>14764.60819381007</v>
       </c>
       <c r="S5">
-        <v>0.04260191423979114</v>
+        <v>0.04267968973980667</v>
       </c>
       <c r="T5">
-        <v>0.04260191423979114</v>
+        <v>0.04267968973980666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H6">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J6">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N6">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O6">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P6">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q6">
-        <v>382.0210467534649</v>
+        <v>821.6818437466684</v>
       </c>
       <c r="R6">
-        <v>382.0210467534649</v>
+        <v>7395.136593720016</v>
       </c>
       <c r="S6">
-        <v>0.01420052797618792</v>
+        <v>0.02137693945280464</v>
       </c>
       <c r="T6">
-        <v>0.01420052797618792</v>
+        <v>0.02137693945280464</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H7">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J7">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N7">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O7">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P7">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q7">
-        <v>491.1308724616082</v>
+        <v>520.4330414715613</v>
       </c>
       <c r="R7">
-        <v>491.1308724616082</v>
+        <v>4683.897373244051</v>
       </c>
       <c r="S7">
-        <v>0.01825637030637604</v>
+        <v>0.01353962692670442</v>
       </c>
       <c r="T7">
-        <v>0.01825637030637604</v>
+        <v>0.01353962692670442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H8">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J8">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N8">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O8">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P8">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q8">
-        <v>1014.429856543585</v>
+        <v>1150.674331566126</v>
       </c>
       <c r="R8">
-        <v>1014.429856543585</v>
+        <v>10356.06898409514</v>
       </c>
       <c r="S8">
-        <v>0.03770849716304753</v>
+        <v>0.02993603388341299</v>
       </c>
       <c r="T8">
-        <v>0.03770849716304753</v>
+        <v>0.02993603388341299</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.6297709659693</v>
+        <v>18.46467533333333</v>
       </c>
       <c r="H9">
-        <v>17.6297709659693</v>
+        <v>55.394026</v>
       </c>
       <c r="I9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="J9">
-        <v>0.08052824962745436</v>
+        <v>0.07303429161291354</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N9">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O9">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P9">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q9">
-        <v>278.7803670778632</v>
+        <v>314.4859556846039</v>
       </c>
       <c r="R9">
-        <v>278.7803670778632</v>
+        <v>2830.373601161436</v>
       </c>
       <c r="S9">
-        <v>0.01036285418184287</v>
+        <v>0.008181691349991495</v>
       </c>
       <c r="T9">
-        <v>0.01036285418184287</v>
+        <v>0.008181691349991494</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H10">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J10">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N10">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O10">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P10">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q10">
-        <v>2478.455682989232</v>
+        <v>5469.493136894951</v>
       </c>
       <c r="R10">
-        <v>2478.455682989232</v>
+        <v>49225.43823205457</v>
       </c>
       <c r="S10">
-        <v>0.09212942470874824</v>
+        <v>0.1422947634960541</v>
       </c>
       <c r="T10">
-        <v>0.09212942470874824</v>
+        <v>0.1422947634960541</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H11">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J11">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N11">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O11">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P11">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q11">
-        <v>3186.332565413537</v>
+        <v>3464.242237071593</v>
       </c>
       <c r="R11">
-        <v>3186.332565413537</v>
+        <v>31178.18013364434</v>
       </c>
       <c r="S11">
-        <v>0.1184427013148149</v>
+        <v>0.09012599842057566</v>
       </c>
       <c r="T11">
-        <v>0.1184427013148149</v>
+        <v>0.09012599842057564</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H12">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J12">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N12">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O12">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P12">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q12">
-        <v>6581.363682213393</v>
+        <v>7659.41879718896</v>
       </c>
       <c r="R12">
-        <v>6581.363682213393</v>
+        <v>68934.76917470065</v>
       </c>
       <c r="S12">
-        <v>0.2446431679222417</v>
+        <v>0.1992680416602499</v>
       </c>
       <c r="T12">
-        <v>0.2446431679222417</v>
+        <v>0.1992680416602499</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>114.377483679854</v>
+        <v>122.909391</v>
       </c>
       <c r="H13">
-        <v>114.377483679854</v>
+        <v>368.728173</v>
       </c>
       <c r="I13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="J13">
-        <v>0.5224468641884573</v>
+        <v>0.4861499128584522</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N13">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O13">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P13">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q13">
-        <v>1808.656331795906</v>
+        <v>2093.363495076941</v>
       </c>
       <c r="R13">
-        <v>1808.656331795906</v>
+        <v>18840.27145569247</v>
       </c>
       <c r="S13">
-        <v>0.06723157024265247</v>
+        <v>0.05446110928157248</v>
       </c>
       <c r="T13">
-        <v>0.06723157024265247</v>
+        <v>0.05446110928157247</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H14">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J14">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.6690873347634</v>
+        <v>44.50020533333333</v>
       </c>
       <c r="N14">
-        <v>21.6690873347634</v>
+        <v>133.500616</v>
       </c>
       <c r="O14">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="P14">
-        <v>0.1763421909936381</v>
+        <v>0.2926972930209797</v>
       </c>
       <c r="Q14">
-        <v>312.9649001275105</v>
+        <v>673.1627496149093</v>
       </c>
       <c r="R14">
-        <v>312.9649001275105</v>
+        <v>6058.464746534184</v>
       </c>
       <c r="S14">
-        <v>0.01163356536922337</v>
+        <v>0.01751305502235</v>
       </c>
       <c r="T14">
-        <v>0.01163356536922337</v>
+        <v>0.01751305502235</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H15">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J15">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.8580404368064</v>
+        <v>28.185334</v>
       </c>
       <c r="N15">
-        <v>27.8580404368064</v>
+        <v>84.55600199999999</v>
       </c>
       <c r="O15">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="P15">
-        <v>0.2267076509279041</v>
+        <v>0.1853872561462678</v>
       </c>
       <c r="Q15">
-        <v>402.3514561716755</v>
+        <v>426.364705334122</v>
       </c>
       <c r="R15">
-        <v>402.3514561716755</v>
+        <v>3837.282348007097</v>
       </c>
       <c r="S15">
-        <v>0.01495625217034984</v>
+        <v>0.01109233769749749</v>
       </c>
       <c r="T15">
-        <v>0.01495625217034984</v>
+        <v>0.01109233769749749</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H16">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J16">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.5407280390503</v>
+        <v>62.31760433333333</v>
       </c>
       <c r="N16">
-        <v>57.5407280390503</v>
+        <v>186.952813</v>
       </c>
       <c r="O16">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273345</v>
       </c>
       <c r="P16">
-        <v>0.4682642096096378</v>
+        <v>0.4098901108273344</v>
       </c>
       <c r="Q16">
-        <v>831.0561458264688</v>
+        <v>942.6898048719263</v>
       </c>
       <c r="R16">
-        <v>831.0561458264688</v>
+        <v>8484.208243847337</v>
       </c>
       <c r="S16">
-        <v>0.03089210960726902</v>
+        <v>0.02452509208386058</v>
       </c>
       <c r="T16">
-        <v>0.03089210960726902</v>
+        <v>0.02452509208386058</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.4429202435963</v>
+        <v>15.127183</v>
       </c>
       <c r="H17">
-        <v>14.4429202435963</v>
+        <v>45.381549</v>
       </c>
       <c r="I17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="J17">
-        <v>0.06597153695137585</v>
+        <v>0.05983333443775553</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8130453093232</v>
+        <v>17.031762</v>
       </c>
       <c r="N17">
-        <v>15.8130453093232</v>
+        <v>51.09528599999999</v>
       </c>
       <c r="O17">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="P17">
-        <v>0.1286859484688201</v>
+        <v>0.1120253400054181</v>
       </c>
       <c r="Q17">
-        <v>228.3865522109296</v>
+        <v>257.6425805864459</v>
       </c>
       <c r="R17">
-        <v>228.3865522109296</v>
+        <v>2318.783225278014</v>
       </c>
       <c r="S17">
-        <v>0.008489609804533614</v>
+        <v>0.006702849634047455</v>
       </c>
       <c r="T17">
-        <v>0.008489609804533614</v>
+        <v>0.006702849634047454</v>
       </c>
     </row>
   </sheetData>
